--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value929.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value929.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.473364681584965</v>
+        <v>1.094361782073975</v>
       </c>
       <c r="B1">
-        <v>2.207633790070686</v>
+        <v>1.892000555992126</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.676703903088436</v>
+        <v>1.187701225280762</v>
       </c>
       <c r="E1">
-        <v>0.5514129073793647</v>
+        <v>1.157837748527527</v>
       </c>
     </row>
   </sheetData>
